--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D2" t="n">
         <v>165</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" t="n">
         <v>200</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4" t="n">
         <v>149</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D5" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7" t="n">
         <v>162</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
         <v>158</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" t="n">
         <v>151</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" t="n">
         <v>149</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
         <v>155</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D12" t="n">
         <v>162</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" t="n">
         <v>164</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D14" t="n">
         <v>162</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
         <v>152</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
         <v>147</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3472</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1861</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1035</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>283</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>445</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="F2" t="n">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="G2" t="n">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>362</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="G3" t="n">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E4" t="n">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F4" t="n">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="G4" t="n">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="D5" t="n">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E5" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F5" t="n">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G5" t="n">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D6" t="n">
+        <v>131</v>
+      </c>
+      <c r="E6" t="n">
         <v>160</v>
       </c>
-      <c r="E6" t="n">
-        <v>194</v>
-      </c>
       <c r="F6" t="n">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G6" t="n">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="F7" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="G7" t="n">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
+        <v>129</v>
+      </c>
+      <c r="E8" t="n">
         <v>158</v>
       </c>
-      <c r="E8" t="n">
-        <v>192</v>
-      </c>
       <c r="F8" t="n">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="G8" t="n">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F9" t="n">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="G9" t="n">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E10" t="n">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F10" t="n">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G10" t="n">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E11" t="n">
+        <v>153</v>
+      </c>
+      <c r="F11" t="n">
         <v>188</v>
       </c>
-      <c r="F11" t="n">
-        <v>229</v>
-      </c>
       <c r="G11" t="n">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>437</v>
+        <v>206</v>
       </c>
       <c r="D12" t="n">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="F12" t="n">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G12" t="n">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>493</v>
+        <v>219</v>
       </c>
       <c r="D13" t="n">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="E13" t="n">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="F13" t="n">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="G13" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="D14" t="n">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="F14" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="G14" t="n">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="D15" t="n">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="F15" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="G15" t="n">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E16" t="n">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="G16" t="n">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D17" t="n">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E17" t="n">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="F17" t="n">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="G17" t="n">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>2258</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>957</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>492</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>59</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n">
         <v>130</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D8" t="n">
         <v>129</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D9" t="n">
         <v>130</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2258</t>
+          <t>2277</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>962</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>489</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" t="n">
         <v>129</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
         <v>130</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2232</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>954</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A2" t="n">
+        <v>445</v>
+      </c>
+      <c r="B2" t="n">
+        <v>445.2987291818388</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>564.6177162395314</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>197</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>340</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323.8095238095238</v>
+      </c>
+      <c r="J2" t="n">
+        <v>317</v>
+      </c>
+      <c r="K2" t="n">
+        <v>247.65625</v>
+      </c>
+      <c r="L2" t="n">
+        <v>290</v>
+      </c>
+      <c r="M2" t="n">
+        <v>187.0967741935484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>248</v>
+      </c>
+      <c r="O2" t="n">
+        <v>125.8883248730965</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>362</v>
+      </c>
+      <c r="B3" t="n">
+        <v>361.7889248074481</v>
       </c>
       <c r="C3" t="n">
-        <v>125</v>
+        <v>480.0194560664869</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>209</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>250</v>
+      </c>
+      <c r="I3" t="n">
+        <v>223.2142857142857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>226</v>
+      </c>
+      <c r="K3" t="n">
+        <v>166.1764705882353</v>
+      </c>
+      <c r="L3" t="n">
+        <v>198</v>
+      </c>
+      <c r="M3" t="n">
+        <v>120.7317073170732</v>
+      </c>
+      <c r="N3" t="n">
+        <v>153</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73.20574162679426</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A4" t="n">
+        <v>280</v>
+      </c>
+      <c r="B4" t="n">
+        <v>280.2917358362416</v>
       </c>
       <c r="C4" t="n">
-        <v>128</v>
+        <v>402.3801924102738</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>231</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>156</v>
+      </c>
+      <c r="I4" t="n">
+        <v>125.8064516129032</v>
+      </c>
+      <c r="J4" t="n">
+        <v>129</v>
+      </c>
+      <c r="K4" t="n">
+        <v>85.43046357615894</v>
+      </c>
+      <c r="L4" t="n">
+        <v>98</v>
+      </c>
+      <c r="M4" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="N4" t="n">
+        <v>49</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21.21212121212121</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A5" t="n">
+        <v>228</v>
+      </c>
+      <c r="B5" t="n">
+        <v>228.313450684644</v>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>352.0998163236911</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>239</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>102</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49.01960784313725</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22.58064516129032</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-4.602510460251046</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A6" t="n">
+        <v>207</v>
+      </c>
+      <c r="B6" t="n">
+        <v>206.6845455299731</v>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>327.8611053831798</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>254</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>76</v>
+      </c>
+      <c r="I6" t="n">
+        <v>58.01526717557252</v>
+      </c>
+      <c r="J6" t="n">
+        <v>47</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.612244897959184</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-47</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-18.50393700787401</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>199</v>
+      </c>
+      <c r="B7" t="n">
+        <v>199.4458849805562</v>
       </c>
       <c r="C7" t="n">
-        <v>106</v>
+        <v>317.8751969678973</v>
       </c>
       <c r="D7" t="n">
         <v>130</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>252</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>53.07692307692308</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>25.15723270440252</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.051282051282051</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-53</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-21.03174603174603</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A8" t="n">
+        <v>196</v>
+      </c>
+      <c r="B8" t="n">
+        <v>195.89313475417</v>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>320.9782316507588</v>
       </c>
       <c r="D8" t="n">
         <v>129</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>253</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51.93798449612403</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.05063291139241</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.030927835051546</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-57</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-22.5296442687747</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A9" t="n">
+        <v>205</v>
+      </c>
+      <c r="B9" t="n">
+        <v>205.4760307293187</v>
       </c>
       <c r="C9" t="n">
-        <v>135</v>
+        <v>324.5332134025282</v>
       </c>
       <c r="D9" t="n">
         <v>130</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>253</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57.69230769230769</v>
+      </c>
+      <c r="J9" t="n">
+        <v>46</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.93081761006289</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.128205128205128</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-48</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-18.97233201581027</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A10" t="n">
+        <v>250</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250.1889347342558</v>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>379.8589604955775</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>245</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>124</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98.4126984126984</v>
+      </c>
+      <c r="J10" t="n">
+        <v>96</v>
+      </c>
+      <c r="K10" t="n">
+        <v>62.33766233766234</v>
+      </c>
+      <c r="L10" t="n">
+        <v>61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32.27513227513227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A11" t="n">
+        <v>337</v>
+      </c>
+      <c r="B11" t="n">
+        <v>337.3908921662362</v>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
+        <v>453.3933341037276</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>245</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>212</v>
+      </c>
+      <c r="I11" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>184</v>
+      </c>
+      <c r="K11" t="n">
+        <v>120.2614379084967</v>
+      </c>
+      <c r="L11" t="n">
+        <v>149</v>
+      </c>
+      <c r="M11" t="n">
+        <v>79.25531914893617</v>
+      </c>
+      <c r="N11" t="n">
+        <v>92</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.55102040816327</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A12" t="n">
+        <v>437</v>
+      </c>
+      <c r="B12" t="n">
+        <v>437.3938652073831</v>
       </c>
       <c r="C12" t="n">
-        <v>205</v>
+        <v>555.1725634343213</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>245</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>314</v>
+      </c>
+      <c r="I12" t="n">
+        <v>255.2845528455285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>287</v>
+      </c>
+      <c r="K12" t="n">
+        <v>191.3333333333333</v>
+      </c>
+      <c r="L12" t="n">
+        <v>251</v>
+      </c>
+      <c r="M12" t="n">
+        <v>134.9462365591398</v>
+      </c>
+      <c r="N12" t="n">
+        <v>192</v>
+      </c>
+      <c r="O12" t="n">
+        <v>78.36734693877551</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A13" t="n">
+        <v>493</v>
+      </c>
+      <c r="B13" t="n">
+        <v>492.7680486423685</v>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>611.9786213569207</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>250</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>369</v>
+      </c>
+      <c r="I13" t="n">
+        <v>297.5806451612903</v>
+      </c>
+      <c r="J13" t="n">
+        <v>341</v>
+      </c>
+      <c r="K13" t="n">
+        <v>224.3421052631579</v>
+      </c>
+      <c r="L13" t="n">
+        <v>303</v>
+      </c>
+      <c r="M13" t="n">
+        <v>159.4736842105263</v>
+      </c>
+      <c r="N13" t="n">
+        <v>243</v>
+      </c>
+      <c r="O13" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A14" t="n">
+        <v>460</v>
+      </c>
+      <c r="B14" t="n">
+        <v>459.8223053771952</v>
       </c>
       <c r="C14" t="n">
-        <v>208</v>
+        <v>578.1039038449185</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>243</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>338</v>
+      </c>
+      <c r="I14" t="n">
+        <v>277.0491803278689</v>
+      </c>
+      <c r="J14" t="n">
+        <v>311</v>
+      </c>
+      <c r="K14" t="n">
+        <v>208.7248322147651</v>
+      </c>
+      <c r="L14" t="n">
+        <v>275</v>
+      </c>
+      <c r="M14" t="n">
+        <v>148.6486486486486</v>
+      </c>
+      <c r="N14" t="n">
+        <v>217</v>
+      </c>
+      <c r="O14" t="n">
+        <v>89.30041152263375</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A15" t="n">
+        <v>348</v>
+      </c>
+      <c r="B15" t="n">
+        <v>348.0732817635676</v>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>475.6866556223038</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>236</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>233</v>
+      </c>
+      <c r="I15" t="n">
+        <v>202.6086956521739</v>
+      </c>
+      <c r="J15" t="n">
+        <v>207</v>
+      </c>
+      <c r="K15" t="n">
+        <v>146.8085106382979</v>
+      </c>
+      <c r="L15" t="n">
+        <v>171</v>
+      </c>
+      <c r="M15" t="n">
+        <v>96.61016949152543</v>
+      </c>
+      <c r="N15" t="n">
+        <v>112</v>
+      </c>
+      <c r="O15" t="n">
+        <v>47.45762711864407</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A16" t="n">
+        <v>218</v>
+      </c>
+      <c r="B16" t="n">
+        <v>218.3292224860157</v>
       </c>
       <c r="C16" t="n">
-        <v>99</v>
+        <v>339.6974891364158</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>234</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>102</v>
+      </c>
+      <c r="I16" t="n">
+        <v>87.93103448275862</v>
+      </c>
+      <c r="J16" t="n">
+        <v>76</v>
+      </c>
+      <c r="K16" t="n">
+        <v>53.52112676056338</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>23.16384180790961</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-6.837606837606838</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="A17" t="n">
+        <v>137</v>
+      </c>
+      <c r="B17" t="n">
+        <v>136.5131423586575</v>
       </c>
       <c r="C17" t="n">
-        <v>53</v>
+        <v>251.1228248011165</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>231</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21.23893805309735</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1.43884892086331</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-37</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-21.26436781609195</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-94</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-40.69264069264069</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2232</t>
+          <t>4802</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>2122</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1315</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>493</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>137</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -529,10 +529,10 @@
         <v>445</v>
       </c>
       <c r="B2" t="n">
-        <v>445.2987291818388</v>
+        <v>445.2987291821527</v>
       </c>
       <c r="C2" t="n">
-        <v>564.6177162395314</v>
+        <v>573.2040146840346</v>
       </c>
       <c r="D2" t="n">
         <v>105</v>
@@ -597,10 +597,10 @@
         <v>362</v>
       </c>
       <c r="B3" t="n">
-        <v>361.7889248074481</v>
+        <v>361.7889248077803</v>
       </c>
       <c r="C3" t="n">
-        <v>480.0194560664869</v>
+        <v>485.5611127536899</v>
       </c>
       <c r="D3" t="n">
         <v>112</v>
@@ -665,10 +665,10 @@
         <v>280</v>
       </c>
       <c r="B4" t="n">
-        <v>280.2917358362416</v>
+        <v>280.2917358366124</v>
       </c>
       <c r="C4" t="n">
-        <v>402.3801924102738</v>
+        <v>397.3464033014016</v>
       </c>
       <c r="D4" t="n">
         <v>124</v>
@@ -733,10 +733,10 @@
         <v>228</v>
       </c>
       <c r="B5" t="n">
-        <v>228.313450684644</v>
+        <v>228.3134506850227</v>
       </c>
       <c r="C5" t="n">
-        <v>352.0998163236911</v>
+        <v>361.9477487255338</v>
       </c>
       <c r="D5" t="n">
         <v>126</v>
@@ -801,10 +801,10 @@
         <v>207</v>
       </c>
       <c r="B6" t="n">
-        <v>206.6845455299731</v>
+        <v>206.6845455303723</v>
       </c>
       <c r="C6" t="n">
-        <v>327.8611053831798</v>
+        <v>334.7911730673871</v>
       </c>
       <c r="D6" t="n">
         <v>131</v>
@@ -869,10 +869,10 @@
         <v>199</v>
       </c>
       <c r="B7" t="n">
-        <v>199.4458849805562</v>
+        <v>199.4458849809555</v>
       </c>
       <c r="C7" t="n">
-        <v>317.8751969678973</v>
+        <v>325.5624472237282</v>
       </c>
       <c r="D7" t="n">
         <v>130</v>
@@ -937,10 +937,10 @@
         <v>196</v>
       </c>
       <c r="B8" t="n">
-        <v>195.89313475417</v>
+        <v>195.8931347545665</v>
       </c>
       <c r="C8" t="n">
-        <v>320.9782316507588</v>
+        <v>321.7285096689639</v>
       </c>
       <c r="D8" t="n">
         <v>129</v>
@@ -1005,10 +1005,10 @@
         <v>205</v>
       </c>
       <c r="B9" t="n">
-        <v>205.4760307293187</v>
+        <v>205.4760307297197</v>
       </c>
       <c r="C9" t="n">
-        <v>324.5332134025282</v>
+        <v>324.3582905860166</v>
       </c>
       <c r="D9" t="n">
         <v>130</v>
@@ -1073,10 +1073,10 @@
         <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>250.1889347342558</v>
+        <v>250.188934734646</v>
       </c>
       <c r="C10" t="n">
-        <v>379.8589604955775</v>
+        <v>374.654412659485</v>
       </c>
       <c r="D10" t="n">
         <v>126</v>
@@ -1141,10 +1141,10 @@
         <v>337</v>
       </c>
       <c r="B11" t="n">
-        <v>337.3908921662362</v>
+        <v>337.3908921666246</v>
       </c>
       <c r="C11" t="n">
-        <v>453.3933341037276</v>
+        <v>453.7802395511744</v>
       </c>
       <c r="D11" t="n">
         <v>125</v>
@@ -1209,10 +1209,10 @@
         <v>437</v>
       </c>
       <c r="B12" t="n">
-        <v>437.3938652073831</v>
+        <v>437.3938652077675</v>
       </c>
       <c r="C12" t="n">
-        <v>555.1725634343213</v>
+        <v>545.1969492938401</v>
       </c>
       <c r="D12" t="n">
         <v>123</v>
@@ -1277,10 +1277,10 @@
         <v>493</v>
       </c>
       <c r="B13" t="n">
-        <v>492.7680486423685</v>
+        <v>492.7680486427637</v>
       </c>
       <c r="C13" t="n">
-        <v>611.9786213569207</v>
+        <v>614.1242151874491</v>
       </c>
       <c r="D13" t="n">
         <v>124</v>
@@ -1345,10 +1345,10 @@
         <v>460</v>
       </c>
       <c r="B14" t="n">
-        <v>459.8223053771952</v>
+        <v>459.8223053775808</v>
       </c>
       <c r="C14" t="n">
-        <v>578.1039038449185</v>
+        <v>574.7358150006238</v>
       </c>
       <c r="D14" t="n">
         <v>122</v>
@@ -1413,10 +1413,10 @@
         <v>348</v>
       </c>
       <c r="B15" t="n">
-        <v>348.0732817635676</v>
+        <v>348.0732817639357</v>
       </c>
       <c r="C15" t="n">
-        <v>475.6866556223038</v>
+        <v>475.202653557284</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
@@ -1481,10 +1481,10 @@
         <v>218</v>
       </c>
       <c r="B16" t="n">
-        <v>218.3292224860157</v>
+        <v>218.329222486386</v>
       </c>
       <c r="C16" t="n">
-        <v>339.6974891364158</v>
+        <v>347.2822405326652</v>
       </c>
       <c r="D16" t="n">
         <v>116</v>
@@ -1549,10 +1549,10 @@
         <v>137</v>
       </c>
       <c r="B17" t="n">
-        <v>136.5131423586575</v>
+        <v>136.5131423590223</v>
       </c>
       <c r="C17" t="n">
-        <v>251.1228248011165</v>
+        <v>255.9776483715319</v>
       </c>
       <c r="D17" t="n">
         <v>113</v>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="E2" t="n">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="G2" t="n">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>272</v>
+        <v>110.5</v>
       </c>
       <c r="D3" t="n">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F3" t="n">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G3" t="n">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>280</v>
+        <v>100.5</v>
       </c>
       <c r="D4" t="n">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="F4" t="n">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G4" t="n">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>228</v>
+        <v>86.5</v>
       </c>
       <c r="D5" t="n">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E5" t="n">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G5" t="n">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>73.5</v>
       </c>
       <c r="D6" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F6" t="n">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="G6" t="n">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>199</v>
+        <v>65.5</v>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E7" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="F7" t="n">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="G7" t="n">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>196</v>
+        <v>89.5</v>
       </c>
       <c r="D8" t="n">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E8" t="n">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F8" t="n">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G8" t="n">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E9" t="n">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="F9" t="n">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="G9" t="n">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E10" t="n">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F10" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="G10" t="n">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>318</v>
+        <v>91</v>
       </c>
       <c r="D11" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="F11" t="n">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="G11" t="n">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="D12" t="n">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E12" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="F12" t="n">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="G12" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>325</v>
+        <v>129.5</v>
       </c>
       <c r="D13" t="n">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="F13" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="G13" t="n">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>316</v>
+        <v>129.5</v>
       </c>
       <c r="D14" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F14" t="n">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G14" t="n">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>307</v>
+        <v>118.5</v>
       </c>
       <c r="D15" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="E15" t="n">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F15" t="n">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G15" t="n">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E16" t="n">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F16" t="n">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G16" t="n">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>77.5</v>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E17" t="n">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F17" t="n">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="G17" t="n">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-01</t>
+          <t>2022-12-25 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16614 units</t>
+          <t>16316 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>1610</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>732</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110.5</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100.5</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86.5</v>
+        <v>73.5</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73.5</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.5</v>
+        <v>68.5</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.5</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129</v>
+        <v>118.5</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129.5</v>
+        <v>124.5</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>129.5</v>
+        <v>126.5</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>118.5</v>
+        <v>136</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>121</v>
+        <v>104.5</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77.5</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1548</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>700</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>398</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>81.3</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>70.2</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68.5</v>
+        <v>62.1</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>58.4</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83.5</v>
+        <v>70.5</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>84.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>118.5</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>124.5</v>
+        <v>118.6</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>126.5</v>
+        <v>122.4</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>104.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>55.9</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1351</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>571</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>310</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81.3</v>
+        <v>61.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77.40000000000001</v>
+        <v>57.4</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67.59999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.2</v>
+        <v>51.2</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.1</v>
+        <v>41.6</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.4</v>
+        <v>37.4</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70.5</v>
+        <v>45.5</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.59999999999999</v>
+        <v>47.1</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118.6</v>
+        <v>60.6</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>122.4</v>
+        <v>58.4</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91.09999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55.9</v>
+        <v>21.4</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>804</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>409</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>233</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>21</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65.09999999999999</v>
+        <v>153.6</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -500,8 +500,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61.8</v>
+        <v>129.3</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -535,8 +535,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.4</v>
+        <v>135.4</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -570,8 +570,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48.6</v>
+        <v>112.3</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -605,8 +605,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51.2</v>
+        <v>119.5</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -640,8 +640,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41.6</v>
+        <v>109.6</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -675,8 +675,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.4</v>
+        <v>106.5</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -710,8 +710,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.5</v>
+        <v>115.9</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -745,8 +745,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47.1</v>
+        <v>121.9</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -780,8 +780,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50.4</v>
+        <v>128.6</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -815,8 +815,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>149.5</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -850,8 +850,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60.6</v>
+        <v>157.3</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -885,8 +885,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.4</v>
+        <v>160.8</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -920,8 +920,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>160.7</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -955,8 +955,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39.6</v>
+        <v>133.4</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -990,8 +990,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1025,8 +1025,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2091</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>982</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>531</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>96</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -475,13 +475,11 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>153.6</v>
+        <v>222.9</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -495,10 +493,8 @@
       <c r="G2" t="n">
         <v>404</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H2" t="n">
+        <v/>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -510,13 +506,11 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>129.3</v>
+        <v>130.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -530,10 +524,8 @@
       <c r="G3" t="n">
         <v>300</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H3" t="n">
+        <v/>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -545,13 +537,11 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>135.4</v>
+        <v>181.25</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -565,10 +555,8 @@
       <c r="G4" t="n">
         <v>368</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H4" t="n">
+        <v/>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -580,10 +568,8 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
         <v>112.3</v>
@@ -600,10 +586,8 @@
       <c r="G5" t="n">
         <v>273</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H5" t="n">
+        <v/>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -615,13 +599,11 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>119.5</v>
+        <v>118.5</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -635,10 +617,8 @@
       <c r="G6" t="n">
         <v>292</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H6" t="n">
+        <v/>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -650,10 +630,8 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
         <v>109.6</v>
@@ -670,10 +648,8 @@
       <c r="G7" t="n">
         <v>299</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H7" t="n">
+        <v/>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -685,13 +661,11 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>106.5</v>
+        <v>140.8</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -705,10 +679,8 @@
       <c r="G8" t="n">
         <v>324</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H8" t="n">
+        <v/>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -720,13 +692,11 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>115.9</v>
+        <v>116.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -740,10 +710,8 @@
       <c r="G9" t="n">
         <v>296</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H9" t="n">
+        <v/>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -755,10 +723,8 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
         <v>121.9</v>
@@ -775,10 +741,8 @@
       <c r="G10" t="n">
         <v>284</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H10" t="n">
+        <v/>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -790,13 +754,11 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>128.6</v>
+        <v>131.1</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -810,10 +772,8 @@
       <c r="G11" t="n">
         <v>279</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H11" t="n">
+        <v/>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -825,13 +785,11 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>149.5</v>
+        <v>151.5</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -845,10 +803,8 @@
       <c r="G12" t="n">
         <v>294</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H12" t="n">
+        <v/>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -860,13 +816,11 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>157.3</v>
+        <v>131.9</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -880,10 +834,8 @@
       <c r="G13" t="n">
         <v>294</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H13" t="n">
+        <v/>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -895,13 +847,11 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>160.8</v>
+        <v>124.4</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -915,10 +865,8 @@
       <c r="G14" t="n">
         <v>276</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H14" t="n">
+        <v/>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -930,13 +878,11 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>160.7</v>
+        <v>126.65</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -950,10 +896,8 @@
       <c r="G15" t="n">
         <v>271</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H15" t="n">
+        <v/>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -965,13 +909,11 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>133.4</v>
+        <v>134.4</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -985,10 +927,8 @@
       <c r="G16" t="n">
         <v>268</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H16" t="n">
+        <v/>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -1000,13 +940,11 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>96.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1020,10 +958,8 @@
       <c r="G17" t="n">
         <v>268</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
+      <c r="H17" t="n">
+        <v/>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1152,7 +1088,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>2153</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1100,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>1133</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1112,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>647</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1124,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1136,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1148,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -475,8 +475,10 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>222.9</v>
@@ -493,8 +495,10 @@
       <c r="G2" t="n">
         <v>404</v>
       </c>
-      <c r="H2" t="n">
-        <v/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -506,11 +510,13 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>130.8</v>
+        <v>129.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -524,8 +530,10 @@
       <c r="G3" t="n">
         <v>300</v>
       </c>
-      <c r="H3" t="n">
-        <v/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -537,8 +545,10 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>181.25</v>
@@ -555,8 +565,10 @@
       <c r="G4" t="n">
         <v>368</v>
       </c>
-      <c r="H4" t="n">
-        <v/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -568,11 +580,13 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>112.3</v>
+        <v>112.8</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -586,8 +600,10 @@
       <c r="G5" t="n">
         <v>273</v>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -599,11 +615,13 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>118.5</v>
+        <v>118</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -617,8 +635,10 @@
       <c r="G6" t="n">
         <v>292</v>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -630,11 +650,13 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>109.6</v>
+        <v>110.1</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -648,8 +670,10 @@
       <c r="G7" t="n">
         <v>299</v>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -661,8 +685,10 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>140.8</v>
@@ -679,8 +705,10 @@
       <c r="G8" t="n">
         <v>324</v>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -692,11 +720,13 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>116.4</v>
+        <v>115.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -710,8 +740,10 @@
       <c r="G9" t="n">
         <v>296</v>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -723,11 +755,13 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>121.9</v>
+        <v>120.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -741,8 +775,10 @@
       <c r="G10" t="n">
         <v>284</v>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -754,11 +790,13 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>131.1</v>
+        <v>127.6</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -772,8 +810,10 @@
       <c r="G11" t="n">
         <v>279</v>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -785,11 +825,13 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>151.5</v>
+        <v>148.5</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -803,8 +845,10 @@
       <c r="G12" t="n">
         <v>294</v>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -816,8 +860,10 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>131.9</v>
@@ -834,8 +880,10 @@
       <c r="G13" t="n">
         <v>294</v>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -847,8 +895,10 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>124.4</v>
@@ -865,8 +915,10 @@
       <c r="G14" t="n">
         <v>276</v>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -878,8 +930,10 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>126.65</v>
@@ -896,8 +950,10 @@
       <c r="G15" t="n">
         <v>271</v>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -909,11 +965,13 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>134.4</v>
+        <v>131.4</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -927,8 +985,10 @@
       <c r="G16" t="n">
         <v>268</v>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -940,11 +1000,13 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>98.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -958,8 +1020,10 @@
       <c r="G17" t="n">
         <v>268</v>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1088,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>2136</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1131</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>94</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -500,8 +500,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>129.8</v>
+        <v>130.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -535,8 +535,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112.8</v>
+        <v>113.3</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -605,8 +605,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>117.5</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -640,8 +640,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>110.1</v>
+        <v>109.6</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -675,8 +675,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>115.4</v>
+        <v>117.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -745,8 +745,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120.4</v>
+        <v>121.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -780,8 +780,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.6</v>
+        <v>132.6</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -815,8 +815,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -850,8 +850,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>94.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1025,8 +1025,8 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>2148</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1134</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>648</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.9</v>
+        <v>153.1</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>130.8</v>
+        <v>128.8</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>181.25</v>
+        <v>134.9</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117.5</v>
+        <v>116.5</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>140.8</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117.4</v>
+        <v>118.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>121.4</v>
+        <v>120.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132.6</v>
+        <v>131.1</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>131.9</v>
+        <v>158.3</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>131.4</v>
+        <v>133.9</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>981</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>530</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>153.1</v>
+        <v>154.1</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>128.8</v>
+        <v>129.3</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113.3</v>
+        <v>112.3</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>116.5</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>109.6</v>
+        <v>110.1</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>118.4</v>
+        <v>117.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120.4</v>
+        <v>122.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>158.3</v>
+        <v>162.3</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133.9</v>
+        <v>135.9</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2038</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>982</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>531</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>154.1</v>
+        <v>222.9</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>129.3</v>
+        <v>158.95</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134.9</v>
+        <v>181.25</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112.3</v>
+        <v>129.35</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>142.05</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>110.1</v>
+        <v>168.6</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="D8" t="n">
         <v>162</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117.4</v>
+        <v>166.4</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122.4</v>
+        <v>165.4</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131.1</v>
+        <v>129.4</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
         <v>155</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>162.3</v>
+        <v>131.9</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>135.9</v>
+        <v>120.85</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>101.4</v>
+        <v>117.9</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2038</t>
+          <t>2389</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>1332</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>692</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>118</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.9</v>
+        <v>223</v>
       </c>
       <c r="D2" t="n">
         <v>235</v>
@@ -500,7 +500,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>158.95</v>
+        <v>159</v>
       </c>
       <c r="D3" t="n">
         <v>165</v>
@@ -535,7 +535,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>181.25</v>
+        <v>181</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -570,7 +570,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129.35</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
         <v>149</v>
@@ -605,7 +605,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142.05</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
         <v>156</v>
@@ -640,7 +640,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168.6</v>
+        <v>169</v>
       </c>
       <c r="D7" t="n">
         <v>160</v>
@@ -675,7 +675,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +710,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>166.4</v>
+        <v>166</v>
       </c>
       <c r="D9" t="n">
         <v>158</v>
@@ -745,7 +745,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>165.4</v>
+        <v>165</v>
       </c>
       <c r="D10" t="n">
         <v>151</v>
@@ -780,7 +780,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129.4</v>
+        <v>129</v>
       </c>
       <c r="D11" t="n">
         <v>149</v>
@@ -815,7 +815,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>131.9</v>
+        <v>132</v>
       </c>
       <c r="D13" t="n">
         <v>149</v>
@@ -885,7 +885,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>124.4</v>
+        <v>124</v>
       </c>
       <c r="D14" t="n">
         <v>143</v>
@@ -920,7 +920,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>126.65</v>
+        <v>127</v>
       </c>
       <c r="D15" t="n">
         <v>139</v>
@@ -955,7 +955,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>120.85</v>
+        <v>121</v>
       </c>
       <c r="D16" t="n">
         <v>136</v>
@@ -990,7 +990,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="D17" t="n">
         <v>135</v>
@@ -1025,7 +1025,7 @@
           <t>B450M DS3H WIFI</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="D2" t="n">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E2" t="n">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="F2" t="n">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="G2" t="n">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E3" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F3" t="n">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G3" t="n">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E4" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F4" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G4" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D5" t="n">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F5" t="n">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="G5" t="n">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E6" t="n">
+        <v>153</v>
+      </c>
+      <c r="F6" t="n">
         <v>190</v>
       </c>
-      <c r="F6" t="n">
-        <v>229</v>
-      </c>
       <c r="G6" t="n">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E7" t="n">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F7" t="n">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D8" t="n">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="F8" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="G8" t="n">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D9" t="n">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E9" t="n">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="F9" t="n">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="G9" t="n">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D10" t="n">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E10" t="n">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="G10" t="n">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" t="n">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
+        <v>144</v>
+      </c>
+      <c r="F11" t="n">
         <v>182</v>
       </c>
-      <c r="F11" t="n">
-        <v>219</v>
-      </c>
       <c r="G11" t="n">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="F12" t="n">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="G12" t="n">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="E13" t="n">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F13" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="G13" t="n">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E14" t="n">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="F14" t="n">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="G14" t="n">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D15" t="n">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E15" t="n">
+        <v>132</v>
+      </c>
+      <c r="F15" t="n">
         <v>169</v>
       </c>
-      <c r="F15" t="n">
-        <v>208</v>
-      </c>
       <c r="G15" t="n">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F16" t="n">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G16" t="n">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D17" t="n">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="G17" t="n">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16316 units</t>
+          <t>16729 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2314</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1301</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>712</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>180</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>165</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>201</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>241</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>306</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>181</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>180</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>220</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>272</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>357</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>178</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>186</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>228</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>284</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>376</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>174</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>175</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>214</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>264</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>346</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>163</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>125</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>153</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>190</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>250</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>159</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>125</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>154</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>192</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>256</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>133</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>119</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>146</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>184</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>245</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>133</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>121</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>149</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>187</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>250</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>131</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>118</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>144</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>181</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>242</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>131</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>118</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>144</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>182</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>245</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>125</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>111</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>136</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>175</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>239</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>129</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>116</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>142</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>180</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>243</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>127</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>113</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>139</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>175</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>235</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>123</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>108</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>132</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>169</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>230</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>124</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>109</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>134</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>170</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>230</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>123</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>108</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>132</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>167</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>226</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B450M DS3H WIFI</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E2" t="n">
         <v>165</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="E4" t="n">
         <v>186</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="E5" t="n">
         <v>175</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E6" t="n">
         <v>125</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
         <v>125</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
         <v>119</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="n">
         <v>118</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" t="n">
         <v>118</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" t="n">
         <v>111</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
         <v>116</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E14" t="n">
         <v>113</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E15" t="n">
         <v>108</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
         <v>109</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
         <v>108</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16729 units</t>
+          <t>16779 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>2401</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1410</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>871</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G2" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H2" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>171</v>
+      </c>
+      <c r="E3" t="n">
+        <v>179</v>
+      </c>
+      <c r="F3" t="n">
         <v>216</v>
       </c>
-      <c r="E3" t="n">
-        <v>180</v>
-      </c>
-      <c r="F3" t="n">
-        <v>220</v>
-      </c>
       <c r="G3" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="H3" t="n">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F4" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="G4" t="n">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="H4" t="n">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F5" t="n">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="G5" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="H5" t="n">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F6" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G6" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H6" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F7" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G7" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H7" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E8" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F8" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G8" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="H8" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E9" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F9" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H9" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E10" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F10" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G10" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H10" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F11" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G11" t="n">
         <v>182</v>
       </c>
       <c r="H11" t="n">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F12" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G12" t="n">
         <v>175</v>
       </c>
       <c r="H12" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G13" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F14" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G14" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H14" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F15" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G15" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" t="n">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F16" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G16" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" t="n">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E17" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G17" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H17" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16779 units</t>
+          <t>16909 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>1932</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1067</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>588</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="E3" t="n">
         <v>179</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E4" t="n">
         <v>137</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
         <v>133</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
         <v>134</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" t="n">
         <v>128</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
         <v>127</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
         <v>121</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1803</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>489</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" t="n">
         <v>179</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
         <v>137</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
         <v>133</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E6" t="n">
         <v>134</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
         <v>128</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E10" t="n">
         <v>127</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
         <v>121</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E12" t="n">
         <v>115</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>2057</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>1049</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>527</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>124</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E3" t="n">
         <v>179</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
         <v>137</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E5" t="n">
         <v>133</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E6" t="n">
         <v>134</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
         <v>128</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E10" t="n">
         <v>127</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="E11" t="n">
         <v>121</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
         <v>115</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16909 units</t>
+          <t>16939 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>1480</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>781</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>396</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
         <v>179</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v>137</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E5" t="n">
         <v>133</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E6" t="n">
         <v>134</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
         <v>132</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
         <v>128</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E9" t="n">
         <v>128</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
         <v>127</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E11" t="n">
         <v>121</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
         <v>115</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E13" t="n">
         <v>117</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
         <v>111</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16939 units</t>
+          <t>17052 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1661</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>872</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>442</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>91</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="H2" t="n">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="G3" t="n">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="H3" t="n">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="F4" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="G4" t="n">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H4" t="n">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="H5" t="n">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F6" t="n">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="G6" t="n">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H6" t="n">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F7" t="n">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G7" t="n">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="H7" t="n">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G8" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="H8" t="n">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F9" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G9" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="H9" t="n">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F10" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G10" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="H10" t="n">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G11" t="n">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="H11" t="n">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G12" t="n">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H12" t="n">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G13" t="n">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="H13" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G14" t="n">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H14" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F15" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G15" t="n">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="H15" t="n">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F16" t="n">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G16" t="n">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H16" t="n">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F17" t="n">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G17" t="n">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="H17" t="n">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17052 units</t>
+          <t>17109 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1212</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>622</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>313</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>108</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
         <v>106</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>103</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>98</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>94</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1223</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>625</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>314</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>108</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
         <v>106</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>103</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
         <v>98</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>94</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1212</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>622</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
+++ b/Sufficient data/forecast_summary_B08B7ZX8Q2.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>124</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>108</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
         <v>106</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>103</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>98</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>95</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>94</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1223</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>625</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
     </row>
